--- a/jyx2/excel/JYX2战斗.xlsx
+++ b/jyx2/excel/JYX2战斗.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jyqxz-rematser\svn\trunk\jyx2\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EBBB9F-DAE7-4ACE-8314-6543881F94FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10DDA58-BF6B-4D82-9C4F-4E4AC11C2C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1105,13 +1105,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CK141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z109" workbookViewId="0">
-      <selection activeCell="AI143" sqref="AI143"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AH68" sqref="AH68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -11602,7 +11602,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -11871,7 +11871,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -12140,7 +12140,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -12409,7 +12409,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -12947,7 +12947,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -13216,7 +13216,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -13485,7 +13485,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -13754,7 +13754,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -14023,7 +14023,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -14292,7 +14292,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -14561,7 +14561,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -14830,7 +14830,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -15099,7 +15099,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -15368,7 +15368,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -15637,7 +15637,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -15906,7 +15906,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -16175,7 +16175,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -16444,7 +16444,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -16713,7 +16713,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -16982,7 +16982,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -17251,7 +17251,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -17520,7 +17520,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -17789,7 +17789,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -18058,7 +18058,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -18327,7 +18327,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -18596,7 +18596,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -18865,7 +18865,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -18966,7 +18966,7 @@
         <v>124</v>
       </c>
       <c r="AH67">
-        <v>-1</v>
+        <v>125</v>
       </c>
       <c r="AI67">
         <v>-1</v>
@@ -19134,7 +19134,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -19403,7 +19403,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -19672,7 +19672,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -19941,7 +19941,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -20210,7 +20210,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -20479,7 +20479,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -20748,7 +20748,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -21017,7 +21017,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -21286,7 +21286,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -21555,7 +21555,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -21824,7 +21824,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -22093,7 +22093,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -22362,7 +22362,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -22631,7 +22631,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -22900,7 +22900,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -23169,7 +23169,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -23438,7 +23438,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -23707,7 +23707,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -23976,7 +23976,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -24245,7 +24245,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -24514,7 +24514,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -24783,7 +24783,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -25052,7 +25052,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="90" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -25321,7 +25321,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -25590,7 +25590,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -25859,7 +25859,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -26128,7 +26128,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -26397,7 +26397,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -26666,7 +26666,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -26935,7 +26935,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -27204,7 +27204,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="98" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -27473,7 +27473,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -27742,7 +27742,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="100" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -28011,7 +28011,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="101" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -28280,7 +28280,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="102" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -28549,7 +28549,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="103" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -28818,7 +28818,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="104" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -29087,7 +29087,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -29356,7 +29356,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="106" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -29625,7 +29625,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -29894,7 +29894,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -30163,7 +30163,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -30432,7 +30432,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -30701,7 +30701,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="111" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -30970,7 +30970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="112" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -31239,7 +31239,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="113" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -31508,7 +31508,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -31777,7 +31777,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="115" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -32046,7 +32046,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="116" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -32315,7 +32315,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="117" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -32584,7 +32584,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="118" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -32853,7 +32853,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -33122,7 +33122,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="120" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -33391,7 +33391,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="121" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -33660,7 +33660,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="122" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -33929,7 +33929,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="123" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -34198,7 +34198,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="124" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -34467,7 +34467,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="125" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -34736,7 +34736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="126" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -35005,7 +35005,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="127" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -35274,7 +35274,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -35543,7 +35543,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="129" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -35812,7 +35812,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="130" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -36081,7 +36081,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="131" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -36350,7 +36350,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="132" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -36619,7 +36619,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="133" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -36888,7 +36888,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="134" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -37157,7 +37157,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="135" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -37426,7 +37426,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="136" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -37695,7 +37695,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="137" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -37964,7 +37964,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="138" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -38233,7 +38233,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="139" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -38502,7 +38502,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="140" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -38771,7 +38771,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
